--- a/xlsx/美国各州国内生产总值列表_intext.xlsx
+++ b/xlsx/美国各州国内生产总值列表_intext.xlsx
@@ -29,7 +29,7 @@
     <t>国内生产总值</t>
   </si>
   <si>
-    <t>政策_政策_美國_美国各州国内生产总值列表</t>
+    <t>政策_政策_美国_美国各州国内生产总值列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
@@ -311,7 +311,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%81%94%E7%A7%91%E5%A1%94%E5%B7%9E</t>
   </si>
   <si>
-    <t>南達科塔州</t>
+    <t>南达科塔州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%80%E4%BF%84%E6%98%8E%E5%B7%9E</t>
@@ -341,7 +341,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E4%BA%BA%E5%9D%87%E7%94%9F%E7%94%A2%E7%B8%BD%E9%A1%8D%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州人均生產總額列表</t>
+    <t>美国各州人均生产总额列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:US_State_Lists</t>
@@ -359,25 +359,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD</t>
   </si>
   <si>
-    <t>美國州份</t>
+    <t>美国州份</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD%E5%92%8C%E9%A0%98%E5%9C%B0%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國州份和領地列表</t>
+    <t>美国州份和领地列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BE%9D%E7%B8%BD%E9%9D%A2%E7%A9%8D%E6%8E%92%E5%88%97%E7%9A%84%E7%BE%8E%E5%9C%8B%E5%B7%9E%E5%88%A5%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>依總面積排列的美國州別列表</t>
+    <t>依总面积排列的美国州别列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E9%A6%96%E5%BA%9C%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州首府列表</t>
+    <t>美国各州首府列表</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_governors%27_residences_in_the_United_States</t>
@@ -389,55 +389,55 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E5%B7%9E%E8%AD%B0%E6%9C%83%E5%A4%A7%E5%BB%88%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州州議會大廈列表</t>
+    <t>美国各州州议会大厦列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD%E4%BE%9D%E5%8A%A0%E5%85%A5%E8%81%AF%E9%82%A6%E9%A0%86%E5%BA%8F%E6%8E%92%E5%88%97%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國州份依加入聯邦順序排列列表</t>
+    <t>美国州份依加入联邦顺序排列列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E6%9C%80%E5%A4%A7%E5%9F%8E%E5%B8%82%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州最大城市列表</t>
+    <t>美国各州最大城市列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E5%90%8D%E7%A8%B1%E8%A9%9E%E6%BA%90</t>
   </si>
   <si>
-    <t>美國各州名稱詞源</t>
+    <t>美国各州名称词源</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E4%BA%BA%E5%8F%A3%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州人口列表</t>
+    <t>美国各州人口列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD%E4%BA%BA%E5%8F%A3%E5%AF%86%E5%BA%A6%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國州份人口密度列表</t>
+    <t>美国州份人口密度列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD%E9%83%B5%E6%94%BF%E7%B8%AE%E5%AF%AB%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國州份郵政縮寫列表</t>
+    <t>美国州份邮政缩写列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E6%99%82%E5%8D%80%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州時區列表</t>
+    <t>美国各州时区列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E7%B8%AE%E5%AF%AB%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州縮寫列表</t>
+    <t>美国各州缩写列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E6%98%B5%E7%A7%B0%E5%88%97%E8%A1%A8</t>
@@ -491,7 +491,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%B7%E5%8F%B2%E4%B8%8A%E5%90%84%E5%9C%8B%E4%BA%BA%E5%9D%87%E5%9C%8B%E5%85%A7%E7%94%9F%E7%94%A2%E6%AF%9B%E9%A1%8D%E5%88%97%E8%A1%A8_(%E8%B3%BC%E8%B2%B7%E5%8A%9B%E5%B9%B3%E5%83%B9)</t>
   </si>
   <si>
-    <t>歷史上各國人均國內生產毛額列表 (購買力平價)</t>
+    <t>历史上各国人均国内生产毛额列表 (购买力平价)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BDGDP%E5%AE%9E%E9%99%85%E5%A2%9E%E9%95%BF%E7%8E%87%E5%88%97%E8%A1%A8</t>
@@ -503,7 +503,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%B0%91%E6%94%B6%E5%85%A5</t>
   </si>
   <si>
-    <t>國民收入</t>
+    <t>国民收入</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E5%8C%BA%E7%94%9F%E4%BA%A7%E6%80%BB%E5%80%BC</t>
@@ -557,13 +557,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>義大利經濟</t>
+    <t>义大利经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E5%90%84%E9%83%BD%E9%81%93%E5%BA%9C%E7%B8%A3%E5%9C%8B%E5%85%A7%E7%94%9F%E7%94%A2%E7%B8%BD%E5%80%BC%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>日本各都道府縣國內生產總值列表</t>
+    <t>日本各都道府县国内生产总值列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF%E5%90%84%E8%81%94%E9%82%A6%E4%B8%BB%E4%BD%93%E5%9B%BD%E5%86%85%E7%94%9F%E4%BA%A7%E6%80%BB%E5%80%BC%E5%88%97%E8%A1%A8</t>
@@ -593,7 +593,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%90%88%E4%BD%9C%E8%88%87%E7%99%BC%E5%B1%95%E7%B5%84%E7%B9%94%E5%9C%8B%E5%AE%B6%E4%BA%BA%E5%9D%87%E5%9C%B0%E5%8D%80%E7%94%9F%E7%94%A2%E7%B8%BD%E5%80%BC</t>
   </si>
   <si>
-    <t>經濟合作與發展組織國家人均地區生產總值</t>
+    <t>经济合作与发展组织国家人均地区生产总值</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%9F%8E%E5%B8%82%E5%9B%BD%E5%86%85%E7%94%9F%E4%BA%A7%E6%80%BB%E5%80%BC%E5%88%97%E8%A1%A8</t>
